--- a/data/trans_bre/P32-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,55%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,82; 1,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,19; -3,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,02; 5,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,04; 8,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,01; 61,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,86; -38,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,36; 102,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,28; 2261,38</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,13%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 1,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,35; 0,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; 0,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,6; 3,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 123,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,91; 9,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,71; 8,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,83; 116,75</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,44%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 1,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,23; -0,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,62; -0,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 444,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,51; 64,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,4; 35,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,83; -2,33</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,59%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,69; 3,18</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; -5,02</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 0,41</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 0,04</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,8; 17,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,61; 9,24</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,54%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,93%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,32; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; 0,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,82; 3,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,6; -2,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 97,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 119,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 84,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,29; -19,5</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,17%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-4,98; -0,46</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-10,09; -2,49</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 3,47</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; -1,48</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -39,72</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,22%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; -0,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; -3,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; -0,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; -1,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,69; 0,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,97; -50,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,61; -8,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,75; -28,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-10,55%</t>
+          <t>-12,55%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 8,22</t>
+          <t>-11,48; 8,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-96,28; 2261,38</t>
+          <t>-96,5; 2049,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-36,13%</t>
+          <t>-47,81%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 3,18</t>
+          <t>-9,09; 1,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,83; 116,75</t>
+          <t>-90,59; 69,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-63,44%</t>
+          <t>-64,36%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; -0,48</t>
+          <t>-7,63; -0,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-88,83; -2,33</t>
+          <t>-89,47; -4,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-56,59%</t>
+          <t>-57,04%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 0,04</t>
+          <t>-5,39; 0,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,61; 9,24</t>
+          <t>-87,27; 8,45</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-62,93%</t>
+          <t>-62,67%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,6; -2,05</t>
+          <t>-10,44; -1,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-84,29; -19,5</t>
+          <t>-84,14; -18,43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,22 +1120,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-37,44%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-81,17%</t>
+          <t>-93,17%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,98; -0,46</t>
+          <t>-6,67; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -2,49</t>
+          <t>-12,97; -3,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,47</t>
+          <t>-1,82; 6,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,48; -1,48</t>
+          <t>-9,37; -2,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -39,72</t>
+          <t>-100,0; -63,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-45,94%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-67,96%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-38,11%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-55,22%</t>
+          <t>68,44%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-6,89; 0,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-12,78; 0,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; 0,0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 6,72</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-4,58</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-45,94%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-67,96%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-38,11%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-61,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-2,36; -0,07</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-6,2; -3,19</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-3,52; -0,5</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; -1,51</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; -2,01</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-71,69; 0,61</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-81,97; -50,87</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-57,61; -8,1</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-73,75; -28,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-80,69; -37,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P32-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 1,59</t>
+          <t>-6,44; 1,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -3,61</t>
+          <t>-12,47; -3,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 5,38</t>
+          <t>-5,51; 4,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 8,07</t>
+          <t>-10,46; 8,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-85,01; 61,26</t>
+          <t>-86,08; 50,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-90,86; -38,23</t>
+          <t>-93,86; -38,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 102,11</t>
+          <t>-58,59; 95,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-96,5; 2049,95</t>
+          <t>-96,24; 1298,56</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,24</t>
+          <t>-3,85; 1,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 0,27</t>
+          <t>-7,59; 0,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 0,24</t>
+          <t>-6,75; 0,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 1,79</t>
+          <t>-8,66; 2,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 123,04</t>
+          <t>-100,0; 80,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,91; 9,26</t>
+          <t>-80,12; 18,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,71; 8,42</t>
+          <t>-76,48; 15,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-90,59; 69,99</t>
+          <t>-88,01; 83,99</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,82</t>
+          <t>-1,61; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 1,85</t>
+          <t>-4,61; 1,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -0,05</t>
+          <t>-4,3; -0,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,61</t>
+          <t>-7,76; -0,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 444,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-74,51; 64,52</t>
+          <t>-76,44; 56,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-91,4; 35,01</t>
+          <t>-100,0; 31,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-89,47; -4,25</t>
+          <t>-88,72; 3,04</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,18</t>
+          <t>-1,74; 3,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,8; -5,02</t>
+          <t>-10,7; -4,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 0,41</t>
+          <t>-6,67; 0,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,04</t>
+          <t>-5,48; 0,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-79,8; 17,73</t>
+          <t>-78,72; 19,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,27; 8,45</t>
+          <t>-84,75; 30,82</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 0,06</t>
+          <t>-7,94; 0,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,43</t>
+          <t>-6,35; 0,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 3,09</t>
+          <t>-6,72; 2,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,44; -1,97</t>
+          <t>-9,88; -1,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 97,48</t>
+          <t>-100,0; 103,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 119,38</t>
+          <t>-100,0; 139,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 84,54</t>
+          <t>-87,88; 94,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-84,14; -18,43</t>
+          <t>-85,08; -23,6</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 0,0</t>
+          <t>-6,35; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,97; -3,1</t>
+          <t>-12,79; -2,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 6,52</t>
+          <t>-1,83; 6,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,37; -2,7</t>
+          <t>-10,09; -3,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -63,15</t>
+          <t>-100,0; -62,0</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 0,0</t>
+          <t>-6,99; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 0,0</t>
+          <t>-15,08; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 0,0</t>
+          <t>-8,72; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 6,72</t>
+          <t>-1,75; 6,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,36; -0,07</t>
+          <t>-2,3; -0,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,2; -3,19</t>
+          <t>-5,96; -2,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,5</t>
+          <t>-3,57; -0,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -2,01</t>
+          <t>-5,72; -1,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,69; 0,61</t>
+          <t>-73,02; 2,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,97; -50,87</t>
+          <t>-80,37; -46,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,61; -8,1</t>
+          <t>-56,58; -10,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-80,69; -37,84</t>
+          <t>-81,51; -35,92</t>
         </is>
       </c>
     </row>
